--- a/BalanceSheet/DLTR_bal.xlsx
+++ b/BalanceSheet/DLTR_bal.xlsx
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-28700000.0</v>
+        <v>990000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>35800000.0</v>
+        <v>1020000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-29100000.0</v>
+        <v>984000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>52700000.0</v>
+        <v>1014000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-41200000.0</v>
+        <v>960000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1031200000.0</v>
